--- a/Taylor-Swift_Midnights-The-Til-Dawn-Edition/Midnights-The-Til-Dawn-Edition_full_album_info.xlsx
+++ b/Taylor-Swift_Midnights-The-Til-Dawn-Edition/Midnights-The-Til-Dawn-Edition_full_album_info.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Taylor Swift Lyrics - Project\TaylorSwiftLyrics\Taylor-Swift_Midnights-The-Til-Dawn-Edition\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5DD8F0-751A-4EC7-ACAF-09078F923A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Midnights-The-Til-Dawn-Edition" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1594,8 +1600,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1671,13 +1677,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1715,7 +1729,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1749,6 +1763,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1783,9 +1798,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1958,14 +1974,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2015,7 +2033,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2065,7 +2083,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2112,7 +2130,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2162,7 +2180,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2215,7 +2233,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2265,7 +2283,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2312,7 +2330,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2362,7 +2380,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2409,7 +2427,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2459,7 +2477,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2509,7 +2527,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2556,7 +2574,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2606,7 +2624,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2656,7 +2674,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2703,7 +2721,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2747,10 +2765,10 @@
         <v>112</v>
       </c>
       <c r="P16" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2797,7 +2815,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2844,7 +2862,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2894,7 +2912,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2941,7 +2959,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2988,7 +3006,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3035,7 +3053,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3088,7 +3106,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3140,29 +3158,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
-    <hyperlink ref="J3" r:id="rId2"/>
-    <hyperlink ref="J4" r:id="rId3"/>
-    <hyperlink ref="J5" r:id="rId4"/>
-    <hyperlink ref="J6" r:id="rId5"/>
-    <hyperlink ref="J7" r:id="rId6"/>
-    <hyperlink ref="J8" r:id="rId7"/>
-    <hyperlink ref="J9" r:id="rId8"/>
-    <hyperlink ref="J10" r:id="rId9"/>
-    <hyperlink ref="J11" r:id="rId10"/>
-    <hyperlink ref="J12" r:id="rId11"/>
-    <hyperlink ref="J13" r:id="rId12"/>
-    <hyperlink ref="J14" r:id="rId13"/>
-    <hyperlink ref="J15" r:id="rId14"/>
-    <hyperlink ref="J16" r:id="rId15"/>
-    <hyperlink ref="J17" r:id="rId16"/>
-    <hyperlink ref="J18" r:id="rId17"/>
-    <hyperlink ref="J19" r:id="rId18"/>
-    <hyperlink ref="J20" r:id="rId19"/>
-    <hyperlink ref="J21" r:id="rId20"/>
-    <hyperlink ref="J22" r:id="rId21"/>
-    <hyperlink ref="J23" r:id="rId22"/>
-    <hyperlink ref="J24" r:id="rId23"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="J14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="J16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="J19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="J20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="J21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="J22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="J23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="J24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
